--- a/biology/Biochimie/Acide_phosphatidique/Acide_phosphatidique.xlsx
+++ b/biology/Biochimie/Acide_phosphatidique/Acide_phosphatidique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un acide phosphatidique est un lipide dont la molécule comporte un résidu de glycérol, lié à deux résidus d'acides gras et un résidu d'acide phosphorique[1].
+Un acide phosphatidique est un lipide dont la molécule comporte un résidu de glycérol, lié à deux résidus d'acides gras et un résidu d'acide phosphorique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Formule chimique semi-développée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">        CH2-OP(O)(OH)2   avec R1 et R2 deux chaînes aliphatiques.
         |
@@ -520,7 +534,7 @@
         |
 R1-CO-O-CH2
 C'est la structure de base des glycérophospholipides (exemples : phosphatidylcholine, phosphatidylsérine).
-L'acide phosphatidique est également un second messager intracellulaire[2],[3].
+L'acide phosphatidique est également un second messager intracellulaire,.
 </t>
         </is>
       </c>
